--- a/模板/company.xlsx
+++ b/模板/company.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\csms\模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFBB0EA-A652-4764-A0E7-7A06BF4E6EC7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69ADDB14-4A17-4C4D-ABE3-E73CEEA8295A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{EE31E41E-7701-4838-BEB5-EF4374D1B9F1}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,18 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BadRecord</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">‘人名,职位,电话’如上面的格式，多个联系人用英文状态的逗号隔开  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不良信息，如果不存在就不填</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>公司法人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -108,6 +96,26 @@
   </si>
   <si>
     <t>公司一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">‘人名,职位,电话,负责项目’如上面的格式，多个联系人用英文状态的分号隔开  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HasBadRecord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常，风险，黑名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OtherInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C5657BC-D624-4398-9A5C-162E43D8343D}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -486,9 +494,10 @@
     <col min="8" max="8" width="13.33203125" customWidth="1"/>
     <col min="9" max="9" width="14.25" customWidth="1"/>
     <col min="10" max="10" width="25.83203125" customWidth="1"/>
+    <col min="11" max="11" width="23.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -517,39 +526,45 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
+      <c r="K2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/模板/company.xlsx
+++ b/模板/company.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\csms\模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69ADDB14-4A17-4C4D-ABE3-E73CEEA8295A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1FDA8E-7211-47F0-B38A-BAC52CCA0F93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{EE31E41E-7701-4838-BEB5-EF4374D1B9F1}"/>
   </bookViews>
@@ -99,23 +99,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">‘人名,职位,电话,负责项目’如上面的格式，多个联系人用英文状态的分号隔开  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HasBadRecord</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>正常，风险，黑名单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OtherInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>其他信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人名,职位,电话,负责项目;123,456,789,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,7 +483,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -526,10 +526,10 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
         <v>18</v>
-      </c>
-      <c r="K1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -555,16 +555,16 @@
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
       </c>
       <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
         <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/模板/company.xlsx
+++ b/模板/company.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\csms\模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1FDA8E-7211-47F0-B38A-BAC52CCA0F93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B2BA51-D644-42B8-BA08-AB0207E3F5F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{EE31E41E-7701-4838-BEB5-EF4374D1B9F1}"/>
+    <workbookView xWindow="5670" yWindow="3200" windowWidth="13430" windowHeight="10060" xr2:uid="{EE31E41E-7701-4838-BEB5-EF4374D1B9F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,10 +95,6 @@
     <t>施工企业</t>
   </si>
   <si>
-    <t>公司一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HasBadRecord</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -116,6 +112,10 @@
   </si>
   <si>
     <t>正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司一阿里氪金大佬开始盯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,7 +483,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -526,15 +526,15 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
         <v>17</v>
-      </c>
-      <c r="K1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -555,16 +555,16 @@
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/模板/company.xlsx
+++ b/模板/company.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\csms\模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B2BA51-D644-42B8-BA08-AB0207E3F5F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF338BA-5DC2-4C2C-A9E5-70EE6DC4B94E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5670" yWindow="3200" windowWidth="13430" windowHeight="10060" xr2:uid="{EE31E41E-7701-4838-BEB5-EF4374D1B9F1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{EE31E41E-7701-4838-BEB5-EF4374D1B9F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>公司一阿里氪金大佬开始盯</t>
+    <t>公司一阿里氪金大佬开始盯123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,7 +483,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
